--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_7.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,75 +498,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAH. 2+1 90M2 FULL EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>Buca Hürriyet Mah.//Cadde üzeri Uçanyolyakını//İzbana 8-10dk//Ebvynbanyolu//Asansörlü/5Yılık/Daire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/111716-1105</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/85846-1887</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI 1+1 EŞYALI KİRALIK</t>
+          <t>ADATEPEDE ÜNİVERSİTE YAKINI SIFIR 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15.250
+          <t>13.000
 TL</t>
         </is>
       </c>
@@ -577,90 +572,85 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142618-204</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/129980-612</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>İnkilap Mh. Adli Tıp Yanı 3+1 Doğalgazlı Kiralık Daire</t>
+          <t>Buca mustafa kemal mah kiralık daire reb gayrimenkulden</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / İnkılap Mah.</t>
+          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>20-09-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9112</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/101303-364</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -671,291 +661,301 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Buca Fırat Mahallesinde Ara Kat Doğalgazlı 3+1 Kiralık Daire</t>
+          <t>BUCA HASTANE YAKINI EŞYALI GENİŞ ÇİFT BALKONLU 1+1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Fırat Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>35 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/21915-11794</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/142478-94</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI&amp;EŞYALI KİRALIK DAİR</t>
+          <t>ARGA' DAN BUCA YEŞİLBAĞLARDA 2+1 D.GAZLI KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yeşilbağlar Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1055</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yesilbaglar-kiralik/daire/63598-125</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAH. EŞYALI 2+1 KAPALI MUTFAK , BAHÇELİ DAİRE</t>
+          <t>Buca'da Siteiçi Doğalgazlı Arakat Otoparklı 3 Balkonlu Geniş 3+1 Kiralık Daire ESNAFOĞLU'ndan...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.000
+          <t>26.000
 TL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>18-09-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/144765-77</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/67273-3967</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Buca Çamlıkule Mah. Site İçerisinde 3+1 Kiralık Daire</t>
+          <t>ATATÜRK MH'DE FAKÜLTELER YAKINI 1+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26.500
+          <t>13.250
 TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>27-10-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/126264-1794</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-59</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TURYAP BUCA'DAN DUMLUPINAR MH'DE TARİHİ MÜSTAKİL RUM EVİ</t>
+          <t>MARKA'DAN ÜÇKUYULAR MEYDANDA ASANSÖRLÜ YENİ BİNADA D.GAZLI 1+1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100 Yaşında</t>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/15356-5756</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1026</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -965,29 +965,24 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Yerden Isıtma</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ÇAMLIPINAR MAH. 110 M2 ARAKAT DOĞALGAZLI 2+1 KİRALIK DAİRE</t>
+          <t>Hürriyet Mh 2+1 105 M2 Doğalgazlı K.Mutfak Arakat Kiralık Daire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15.500
+          <t>22.000
 TL</t>
         </is>
       </c>
@@ -998,27 +993,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>105 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/18435-5269</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/24511-9133</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1040,33 +1035,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YAYLACIKTA EŞYALI KİRALIK DAİRE</t>
+          <t>REF'DEN KAMPÜS KARŞISI LÜKS EŞYALI BALKONLU 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1076,12 +1071,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>29-09-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-60</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-141</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1092,102 +1087,92 @@
       <c r="K11" t="inlineStr">
         <is>
           <t>Klima</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KADIN DOĞUM HASTANESİ KARŞISI 2+1 KİRALIK DAİRE</t>
+          <t>-AY GAYRİMENKUL'DEN- YAYLACIK MH. 4+1 EŞYALI KİRALIK DAİRE!!</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19.000
+          <t>24.950
 TL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>4 + 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/14003-1490</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144455-57</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DOĞUŞ CAD. ÜZERİNDE KAMPÜS KARŞISI KİRALIK 1+1 EŞYALI REZİDANS</t>
+          <t>BUCA GÜNLÜK KİRALIK REZİDANS 7/24 GÜVENLİ HİJYENİK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16.000
+          <t>300
 TL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1197,65 +1182,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>30-09-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-154</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/residence/138098-24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Yerden Isıtma</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AY GAYRİMENKUL'DEN ŞİRİNYER İZBAN DİBİ 3+1 KİRALIK DAİRE!!</t>
+          <t>ATATÜRK MAHALLESİ GENİŞ ARAKAT EŞYALI DAİRE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21.500
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1265,17 +1240,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>27-09-2024</t>
+          <t>20-10-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/144455-54</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/147679-39</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1287,48 +1262,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BUCA ADA EMLAKTAN YAYLACIK MH. 3+1 SİTE İÇERSİNDE KİRALIK DAİRE</t>
+          <t>BUCA İNÖNÜ MAH. KİRALIK 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / İnönü Mah.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145203-45</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inonu-kiralik/daire/142512-107</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1338,24 +1313,24 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAHALLESİNDE 2+1 KİRALİK DAİRE</t>
+          <t>YEŞİLBAĞLAR MAH. BUCA AİLE APARTMANI 11BİN TL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Yenigün Mah.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.000
+          <t>11.000
 TL</t>
         </is>
       </c>
@@ -1366,27 +1341,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>03-10-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/146020-44</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/0-43477544</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1396,60 +1371,60 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Soba</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Kömür-Odun</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Buca Efeler Mah. Kiralık Eşyalı 3+1 Daire</t>
+          <t>HAS CETINLERDEN KIRALIK 1+1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>25-09-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/151855-9</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/143812-27</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1466,75 +1441,75 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bucaPARİSADAN TINAZTEPE HAST. VE KAMPÜSE YAKIN KİRALIK 3+1 DAİRE</t>
+          <t>Şirinyer'de günlük 950 1+1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Barış Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>Yarı Bodrum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>29-10-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-31</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-baris-kiralik/daire/0-43387718</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VİRAJ EMLAK KİRALIK 3+1 155mt 4 BALKON 2TUVALET YİĞİTLER MAH ŞİRİNYER</t>
+          <t>Kiralık daire (öğrenciye)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15.000
+          <t>22.000
 TL</t>
         </is>
       </c>
@@ -1545,70 +1520,70 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>155 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>35 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19-10-2024</t>
+          <t>04-09-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/98587-1454</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/0-43311816</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Asemloft Buca da hemen oturuma hazır Eşyalı Kiralık 1+1 Daire</t>
+          <t>SAHİBİNDEN, 5 KLİMA+DOĞALGAZ,140 M2 3+1 Eğitim ve Hukuk Fak.10dk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>53 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>18 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1618,22 +1593,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29-10-2024</t>
+          <t>15-08-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/125876-2283</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/0-43180762</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1645,70 +1620,80 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BUCA SEYFİ DEMİRSOY HAST. ARKASI 1+1 KLİMALI MERKEZİ DAİRE</t>
+          <t>Buca Batı Çıkışı  Doğalgazlı Full Eşyalı Lüx 3+1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13.000
+          <t>25.500
 TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-1092</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/118269-184</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIM MAH. NECİP FAZIL OKULU YAKINI 2+1 EŞYALI KİRALIK DAİRE</t>
+          <t>TINAZTEPE HAST. VE KAMPÜSÜ YAK. D.GAZLI,FULL EŞYALI 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15.000
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -1719,7 +1704,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1729,17 +1714,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111960-232</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/15356-5753</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1761,33 +1746,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 2+1 DGAZLI&amp;EŞYALI KİRALIK DAİRE</t>
+          <t>ATATÜRK MAH. 1+0 STÜDYO FATURALAR KİRAYA DAHİL EŞYALI DAİRE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>1 Yaşında</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1797,12 +1782,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1054</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/142478-93</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1819,101 +1804,106 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BUCA KONFORUN ADRESİ</t>
+          <t>BAŞOĞLUN'DAN EŞYALI DOĞALGAZLI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>200
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/138098-14</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-640</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Buca Atatürk Mahallesi'nde Bahçeli Eşyalı 1+1 Daire</t>
+          <t>BUCA I ULUSALOFIS GAYRIMENKUL 2+1 ESYALİ KİRALİK  DAIRE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14.500
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>05-09-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/51456-7241</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/9163-974</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1935,86 +1925,91 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAH. 2+1 90M2 FULL EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>Şirinyer İnkılap Mh. 3+1 130 M2 Doğalgazlı Arakat Kiralık Daire</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12 Yaşında</t>
+          <t>28 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/111716-1105</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9116</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI 1+1 EŞYALI KİRALIK</t>
+          <t>GÜNEŞ'TEN 3+1 135m2 D.GAZLI EŞYALI İZBANA 5DK KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15.250
+          <t>27.500
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2024,112 +2019,102 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142618-204</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/130324-782</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Belirtilmemiş</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>İnkilap Mh. Adli Tıp Yanı 3+1 Doğalgazlı Kiralık Daire</t>
+          <t>REF'DEN HAVUZLU SİTEDE LÜKS DİZAYN D.GAZLI KLİMALI BALKONLU 1+1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / İnkılap Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>24.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>20-08-2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9112</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-121</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Yerden Isıtma</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Buca Fırat Mahallesinde Ara Kat Doğalgazlı 3+1 Kiralık Daire</t>
+          <t>İZMİR BUCA GÜNLÜK KİRALIK 1+1  2+1 DAİRELER</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Fırat Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21.000
+          <t>400
 TL</t>
         </is>
       </c>
@@ -2140,153 +2125,148 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>35 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>09-10-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/21915-11794</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/138098-23</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI&amp;EŞYALI KİRALIK DAİR</t>
+          <t>SANE GAYRİMENKUL DEN BUCA ADATEPE DE HASANAĞA PARKİ YAKINI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14.000
+          <t>21.000
 TL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1055</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144199-33</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAH. EŞYALI 2+1 KAPALI MUTFAK , BAHÇELİ DAİRE</t>
+          <t>BUCA KOZAĞAÇ MAHALLESİNDE EŞYALI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>07-10-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/144765-77</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/143815-154</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2298,48 +2278,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Buca Çamlıkule Mah. Site İçerisinde 3+1 Kiralık Daire</t>
+          <t>Buca Hat Boyunda Koşu İzban Durağına Yakın 2+1 85 m2 Ankastre Mutfak Hilton Banyo Çift Cephe Daire</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>26.500
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>9 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/126264-1794</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/9709-4854</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2361,17 +2341,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TURYAP BUCA'DAN DUMLUPINAR MH'DE TARİHİ MÜSTAKİL RUM EVİ</t>
+          <t>TURYAP BUCA 'DAN ATATÜRK MH.DE KİRALIK 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30.000
+          <t>15.750
 TL</t>
         </is>
       </c>
@@ -2382,22 +2362,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>99 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>100 Yaşında</t>
+          <t>13 Yaşında</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/15356-5756</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/15356-5744</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2407,7 +2392,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Yerden Isıtma</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2419,28 +2404,28 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ÇAMLIPINAR MAH. 110 M2 ARAKAT DOĞALGAZLI 2+1 KİRALIK DAİRE</t>
+          <t>bucaPARİSA'DAN HASANAĞA BAHÇESİ YANI KISMİ EŞYALI D.GAZLI ARAKAT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15.500
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>115 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2450,17 +2435,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/18435-5269</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/143816-39</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2471,23 +2456,18 @@
       <c r="K34" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YAYLACIKTA EŞYALI KİRALIK DAİRE</t>
+          <t>TINAZTEPE KAMPÜS KARŞISI EŞYASIZ KİRALIK 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2498,32 +2478,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-60</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142478-84</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2533,24 +2513,24 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KADIN DOĞUM HASTANESİ KARŞISI 2+1 KİRALIK DAİRE</t>
+          <t>TURPA AYEL YAPIDA DAN 2+1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -2561,27 +2541,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/14003-1490</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-8</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2592,59 +2572,59 @@
       <c r="K36" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DOĞUŞ CAD. ÜZERİNDE KAMPÜS KARŞISI KİRALIK 1+1 EŞYALI REZİDANS</t>
+          <t>BAŞOĞLU'NDAN ŞİRİNYER MERKEZDE 3+1 DAİRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16.000
+          <t>22.500
 TL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-154</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/129980-624</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2656,128 +2636,138 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AY GAYRİMENKUL'DEN ŞİRİNYER İZBAN DİBİ 3+1 KİRALIK DAİRE!!</t>
+          <t>GOLDİA YAPI’DAN TINAZTEPE YAKINI 1+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21.500
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>27-09-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/144455-54</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142618-210</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BUCA ADA EMLAKTAN YAYLACIK MH. 3+1 SİTE İÇERSİNDE KİRALIK DAİRE</t>
+          <t>Buca Belediyesi Yakını Menderes Caddesi Üzeri Kiralık 2+1 Daire</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>97 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>41 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>7. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145203-45</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/54684-3436</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAHALLESİNDE 2+1 KİRALİK DAİRE</t>
+          <t>GÜNEŞ EMLAK'TAN 1+1 ASANSÖRLÜ OTOPARKLI SIFIR LÜKS KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2788,59 +2778,59 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/146020-44</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/130324-761</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Buca Efeler Mah. Kiralık Eşyalı 3+1 Daire</t>
+          <t>REF’DEN MÜKEMMEL KONUM D.GAZ+BALKON+EBEVEYN BANYOLU KİRALIK 3+1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23.000
+          <t>21.500
 TL</t>
         </is>
       </c>
@@ -2851,59 +2841,59 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>29-08-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/151855-9</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-92</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bucaPARİSADAN TINAZTEPE HAST. VE KAMPÜSE YAKIN KİRALIK 3+1 DAİRE</t>
+          <t>Buca Akıncılarda Kiralık 3+1 Dogalgazlı Daire</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19.500
+          <t>16.000
 TL</t>
         </is>
       </c>
@@ -2914,27 +2904,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>29-10-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-31</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/51456-7238</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2956,75 +2946,80 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>VİRAJ EMLAK KİRALIK 3+1 155mt 4 BALKON 2TUVALET YİĞİTLER MAH ŞİRİNYER</t>
+          <t>TURYAP BUCA'DAN ÖĞRENCİYE MEMURA UYGUN 1+1 EŞYALI DAİRE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>155 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>35 Yaşında</t>
+          <t>17 Yaşında</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>19-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/98587-1454</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/15356-5699</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Klima</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Asemloft Buca da hemen oturuma hazır Eşyalı Kiralık 1+1 Daire</t>
+          <t>BUCA YAYLACIK'TA HEYKEL- SGK YAKINI 60M2 1+1 DOĞALGAZLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23.000
+          <t>15.300
 TL</t>
         </is>
       </c>
@@ -3035,75 +3030,65 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>53 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/125876-2283</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111716-1104</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BUCA SEYFİ DEMİRSOY HAST. ARKASI 1+1 KLİMALI MERKEZİ DAİRE</t>
+          <t>bucaPARİSA'DAN KOZAĞAÇ MEYDAN YAKINI D.GAZLI ARA KAT KİRALIK 3+1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13.000
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3113,12 +3098,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-1092</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/143816-35</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3129,59 +3114,54 @@
       <c r="K45" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIM MAH. NECİP FAZIL OKULU YAKINI 2+1 EŞYALI KİRALIK DAİRE</t>
+          <t>SAFİR'den YILDIZ MAH KİRALIK EŞYASIZ 1+1 KAPALI MUTFAK</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111960-232</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/109159-296</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3192,28 +3172,23 @@
       <c r="K46" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 2+1 DGAZLI&amp;EŞYALI KİRALIK DAİRE</t>
+          <t>ADATEPEDE GÜZEL LOKASYONLU 2+1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20.000
+          <t>11.000
 TL</t>
         </is>
       </c>
@@ -3229,39 +3204,44 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>21-09-2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1054</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/0-43369919</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BUCA KONFORUN ADRESİ</t>
+          <t>DEÜ İİBF YAKINI ARAKAT FULL EŞYALI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3271,91 +3251,96 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>200
+          <t>14.500
 TL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/138098-14</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142478-82</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Buca Atatürk Mahallesi'nde Bahçeli Eşyalı 1+1 Daire</t>
+          <t>9000 TL ELEKTRİK SU DAHİL KIZ PANSİYON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14.500
+          <t>9.000
 TL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/51456-7241</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/129980-641</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3365,19 +3350,19 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAH. 2+1 90M2 FULL EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>ERA NİVA'DAN ADATEPE'DE KİRALIK 3+1 DAİRE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3388,32 +3373,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>143 m²</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>12 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/111716-1105</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/140088-428</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3424,59 +3409,54 @@
       <c r="K50" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI 1+1 EŞYALI KİRALIK</t>
+          <t>ER YAPI EMLAK'TAN ŞİRİNYER FORBES YANI 3+1 BALKONLU D.GAZLI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15.250
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>155 m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>31 Yaşında</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142618-204</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/68864-2462</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3493,116 +3473,111 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>İnkilap Mh. Adli Tıp Yanı 3+1 Doğalgazlı Kiralık Daire</t>
+          <t>NATO KAVŞAĞINDA ASANSÖRLÜ OTOPARKLI BALKONLU DOĞALGAZLI 2+1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>İzmir / Buca / İnkılap Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9112</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/147679-19</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Buca Fırat Mahallesinde Ara Kat Doğalgazlı 3+1 Kiralık Daire</t>
+          <t>HASANAĞA BAHÇESİNE 50MT GENİŞ FERAH 1+1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Fırat Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>35 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>14-08-2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/21915-11794</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/144837-45</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3614,48 +3589,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI&amp;EŞYALI KİRALIK DAİR</t>
+          <t>BUCA MENDERS CAD. ÜSTÜ FULL EŞYALI KİRALIK 2+1 ARA KAT DAİRE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>25-08-2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1055</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/107450-443</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3665,24 +3640,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAH. EŞYALI 2+1 KAPALI MUTFAK , BAHÇELİ DAİRE</t>
+          <t>1+1 ve 2+1 Lüks Apart Daireler - Konforlu ve Lüks Günlük Evler</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20.000
+          <t>400
 TL</t>
         </is>
       </c>
@@ -3693,27 +3673,27 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>03-10-2024</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/144765-77</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/138098-21</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3724,64 +3704,59 @@
       <c r="K55" t="inlineStr">
         <is>
           <t>Klima</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Buca Çamlıkule Mah. Site İçerisinde 3+1 Kiralık Daire</t>
+          <t>bucaPARİSADAN HASANAĞA BAH.YAKINI EŞYALI D.GAZLI KLİMALI 2+1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>26.500
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/126264-1794</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/143816-34</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3793,48 +3768,53 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TURYAP BUCA'DAN DUMLUPINAR MH'DE TARİHİ MÜSTAKİL RUM EVİ</t>
+          <t>SAFİR'den Kuruçeşme mh. Kapalı Mutfak&amp;Doğal Gazlı Kiralık Daire</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>30.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>99 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>100 Yaşında</t>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/15356-5756</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-289</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3846,33 +3826,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ÇAMLIPINAR MAH. 110 M2 ARAKAT DOĞALGAZLI 2+1 KİRALIK DAİRE</t>
+          <t>ABONELİKLERİ AÇIK 2+0 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>15.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3887,7 +3867,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/18435-5269</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-64</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3909,53 +3889,53 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>YAYLACIKTA EŞYALI KİRALIK DAİRE</t>
+          <t>YENİGÜN MAHALLESİ'NDE 3+1 DOĞALGAZLI DAİRE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Yenigün Mah.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>17.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>05-09-2024</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-60</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/147777-137</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3972,7 +3952,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KADIN DOĞUM HASTANESİ KARŞISI 2+1 KİRALIK DAİRE</t>
+          <t>BUCA HASANAĞA BAHÇESİ DİBİ UÇKUYULAR MEYDAN'DA 2+1  90 M2 D.GAZLI MASRAFSIZ DAİRE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3982,7 +3962,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>19.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -3993,32 +3973,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>96 m²</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/14003-1490</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/111716-1087</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4035,48 +4010,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DOĞUŞ CAD. ÜZERİNDE KAMPÜS KARŞISI KİRALIK 1+1 EŞYALI REZİDANS</t>
+          <t>BUCA DOKUZÇEŞMELER KAMPÜSÜ BİTİŞİĞİNDE 2+1 GENİŞ BAHÇELİ MUSTAKİL EV</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Dumlupınar Mah.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>175 m²</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Ara Kat</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-154</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/142604-69</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4086,60 +4056,60 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Kömür-Odun</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AY GAYRİMENKUL'DEN ŞİRİNYER İZBAN DİBİ 3+1 KİRALIK DAİRE!!</t>
+          <t>BUCA YILDIZ MAHALLESİNDE 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>21.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>27-09-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/144455-54</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/146020-47</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4150,64 +4120,59 @@
       <c r="K62" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BUCA ADA EMLAKTAN YAYLACIK MH. 3+1 SİTE İÇERSİNDE KİRALIK DAİRE</t>
+          <t>DEÜ TINAZTEPE KAMPÜS KARŞISI FULL EŞYALI D.GAZLI 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>21 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>7. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145203-45</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142478-122</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4219,17 +4184,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BUCA YILDIZ MAHALLESİNDE 2+1 KİRALİK DAİRE</t>
+          <t>Kiralık eşyasız</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>15.000
+          <t>17.555
 TL</t>
         </is>
       </c>
@@ -4240,32 +4205,32 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/146020-44</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142618-231</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4282,63 +4247,538 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Buca Efeler Mah. Kiralık Eşyalı 3+1 Daire</t>
+          <t>İzmir Buca Akıncılar Mah. de 1+ 1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2 Yaşında</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>20-08-2024</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/145402-46</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TURYAP BUCA 'DAN KOZAĞAÇ MH. DE KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90 m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>23 Yaşında</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/15356-5752</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>bucaPARİSA'DAN KADIN DOĞUM HASTANESİ YANI KLİMALI ARA KAT 3+1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16.500
+TL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>3 + 1</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>140 m²</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>21 Yaşında</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/143816-30</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SAFİR'den KAMPÜSE YAKINN ÖĞRENCİYE UYGUN AYRI MUTFAK EŞYALI 1+1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60 m²</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2 Yaşında</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Kot 1</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-287</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MEYDAN YAKINI ARAKAT DOĞALGAZLI SIFIR OTOMATİK PANJURLU 1+1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>13.500
+TL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>56 m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>14-08-2024</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/144837-46</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Buca Atatürk Mahallesinde Kiralık Çift Banyolu Arakat Daire</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>16.000
+TL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>130 m²</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>21 Yaşında</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>8. Kat</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>31-10-2024</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/151855-9</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>20 Yaşında</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>03-09-2024</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/6057-2334</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>26-10-2024</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/71024-1020</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>Eşyalı</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Klima</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>YAYLACIKTA 1+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>30-10-2024</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-67</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BUCA İNKILAP METRO DURAĞI YANINDA 3+1 KİRALİK DAİRE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>140 m²</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>18 Yaşında</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>02-11-2024</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/144765-62</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
